--- a/data/trans_orig/IP07C15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C15-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C4FDF3-938F-441C-AE2F-11EC65DE8335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{400E91AA-87AF-4DBB-AF9E-08BF7C94F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52755196-C46F-4BC7-B646-D4763078239A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38DF3159-FBDA-42A7-8869-06DC2651968B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="605">
   <si>
     <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>36,39%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
   </si>
   <si>
     <t>36,16%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -107,28 +107,28 @@
     <t>51,27%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
   </si>
   <si>
     <t>49,35%</t>
   </si>
   <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
   </si>
   <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -137,28 +137,28 @@
     <t>10,84%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -176,1645 +176,1684 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>8,94%</t>
+    <t>7,79%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>45,73%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,62%</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA99AA9C-24E8-4F2A-A64B-F5973BA46386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9CCD97-3EE9-4D35-AEED-A765028B5672}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2685,7 +2724,7 @@
         <v>218</v>
       </c>
       <c r="N10" s="7">
-        <v>144839</v>
+        <v>144840</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>61</v>
@@ -2940,7 +2979,7 @@
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407699</v>
+        <v>407700</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -3101,10 +3140,10 @@
         <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,7 +3164,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3134,13 +3173,13 @@
         <v>3590</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3149,13 +3188,13 @@
         <v>4285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,7 +3215,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3185,13 +3224,13 @@
         <v>733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3206,7 +3245,7 @@
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3313,13 @@
         <v>104779</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>161</v>
@@ -3289,13 +3328,13 @@
         <v>108148</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>319</v>
@@ -3304,13 +3343,13 @@
         <v>212927</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3364,13 @@
         <v>135409</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>179</v>
@@ -3340,13 +3379,13 @@
         <v>119604</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M23" s="7">
         <v>383</v>
@@ -3355,13 +3394,13 @@
         <v>255014</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3415,13 @@
         <v>63405</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>79</v>
@@ -3391,13 +3430,13 @@
         <v>53965</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>174</v>
@@ -3406,13 +3445,13 @@
         <v>117370</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3466,13 @@
         <v>5335</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -3442,13 +3481,13 @@
         <v>6838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -3457,13 +3496,13 @@
         <v>12173</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3517,13 @@
         <v>649</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3493,13 +3532,13 @@
         <v>2091</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3508,13 +3547,13 @@
         <v>2740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,7 +3609,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7459558-2ACE-4840-8C28-35AA85807CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390BE762-9B1E-481D-8D5A-F32DF7FFFF7B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3606,7 +3645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3713,13 +3752,13 @@
         <v>20637</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -3728,13 +3767,13 @@
         <v>22840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -3743,13 +3782,13 @@
         <v>43477</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3803,13 @@
         <v>18238</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -3779,13 +3818,13 @@
         <v>18306</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -3794,13 +3833,13 @@
         <v>36544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3854,13 @@
         <v>5662</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -3830,13 +3869,13 @@
         <v>8827</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -3845,13 +3884,13 @@
         <v>14489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3905,13 @@
         <v>625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3881,13 +3920,13 @@
         <v>1653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3896,13 +3935,13 @@
         <v>2278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,7 +3962,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3938,7 +3977,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3953,7 +3992,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4060,13 @@
         <v>98808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -4036,13 +4075,13 @@
         <v>78094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -4051,13 +4090,13 @@
         <v>176902</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4111,13 @@
         <v>85230</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>115</v>
@@ -4087,13 +4126,13 @@
         <v>80331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>238</v>
@@ -4102,13 +4141,13 @@
         <v>165561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4162,13 @@
         <v>35153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -4138,13 +4177,13 @@
         <v>38761</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
@@ -4153,13 +4192,13 @@
         <v>73914</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4213,13 @@
         <v>3998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4189,10 +4228,10 @@
         <v>1883</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>243</v>
@@ -4204,13 +4243,13 @@
         <v>5881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4264,13 @@
         <v>652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4240,13 +4279,13 @@
         <v>678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4255,13 +4294,13 @@
         <v>1331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4368,13 @@
         <v>20184</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -4344,13 +4383,13 @@
         <v>30536</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -4359,13 +4398,13 @@
         <v>50720</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4419,13 @@
         <v>24535</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4395,13 +4434,13 @@
         <v>18716</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -4410,13 +4449,13 @@
         <v>43251</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4470,13 @@
         <v>9371</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -4446,13 +4485,13 @@
         <v>10871</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -4461,13 +4500,13 @@
         <v>20242</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4521,13 @@
         <v>1393</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4497,13 +4536,13 @@
         <v>678</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4515,10 +4554,10 @@
         <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4572,13 @@
         <v>668</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4563,7 +4602,7 @@
         <v>668</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
@@ -4670,10 +4709,10 @@
         <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4727,13 @@
         <v>128004</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
         <v>167</v>
@@ -4703,13 +4742,13 @@
         <v>117353</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M23" s="7">
         <v>351</v>
@@ -4718,13 +4757,13 @@
         <v>245356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4778,13 @@
         <v>50186</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -4754,13 +4793,13 @@
         <v>58459</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>158</v>
@@ -4769,13 +4808,13 @@
         <v>108645</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4829,13 @@
         <v>6016</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4805,13 +4844,13 @@
         <v>4214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4820,13 +4859,13 @@
         <v>10231</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4880,13 @@
         <v>1321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4856,13 +4895,13 @@
         <v>678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4871,13 +4910,13 @@
         <v>1999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +4972,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4952,7 +4991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ED7D15-A3ED-4120-9AD7-95595B642EFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE65110-03CF-4132-A5F7-8AE26308A78C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4969,7 +5008,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5076,13 +5115,13 @@
         <v>7843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5091,13 +5130,13 @@
         <v>11047</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5106,13 +5145,13 @@
         <v>18890</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5166,13 @@
         <v>24479</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5142,13 +5181,13 @@
         <v>12290</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -5157,13 +5196,13 @@
         <v>36769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5217,13 @@
         <v>4316</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -5193,13 +5232,13 @@
         <v>6651</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -5208,13 +5247,13 @@
         <v>10967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,7 +5274,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5244,13 +5283,13 @@
         <v>617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5259,13 +5298,13 @@
         <v>617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,7 +5325,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5301,7 +5340,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5316,7 +5355,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5423,13 @@
         <v>86234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -5399,13 +5438,13 @@
         <v>81867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -5414,13 +5453,13 @@
         <v>168102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5474,13 @@
         <v>108551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>165</v>
@@ -5450,13 +5489,13 @@
         <v>115320</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>314</v>
@@ -5465,13 +5504,13 @@
         <v>223871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5525,13 @@
         <v>32229</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H12" s="7">
         <v>61</v>
@@ -5501,13 +5540,13 @@
         <v>43606</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -5516,13 +5555,13 @@
         <v>75835</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5576,13 @@
         <v>8725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5552,13 +5591,13 @@
         <v>1962</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5570,10 +5609,10 @@
         <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,7 +5633,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5603,13 +5642,13 @@
         <v>1244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5618,13 +5657,13 @@
         <v>1244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5731,13 @@
         <v>31123</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -5707,13 +5746,13 @@
         <v>25384</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -5722,13 +5761,13 @@
         <v>56506</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5782,13 @@
         <v>32460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -5758,13 +5797,13 @@
         <v>32915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -5773,13 +5812,13 @@
         <v>65374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5833,13 @@
         <v>11303</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5809,13 +5848,13 @@
         <v>10592</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5824,13 +5863,13 @@
         <v>21895</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,7 +5890,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5860,13 +5899,13 @@
         <v>1376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5875,13 +5914,13 @@
         <v>1376</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +5941,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5911,13 +5950,13 @@
         <v>824</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5926,13 +5965,13 @@
         <v>824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6039,13 @@
         <v>125200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -6015,13 +6054,13 @@
         <v>118298</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -6030,13 +6069,13 @@
         <v>243498</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6090,13 @@
         <v>165490</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -6066,13 +6105,13 @@
         <v>160524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>21</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>456</v>
@@ -6081,13 +6120,13 @@
         <v>326015</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6141,13 @@
         <v>47848</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="H24" s="7">
         <v>85</v>
@@ -6117,13 +6156,13 @@
         <v>60849</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M24" s="7">
         <v>151</v>
@@ -6132,13 +6171,13 @@
         <v>108697</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6192,13 @@
         <v>8725</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6168,13 +6207,13 @@
         <v>3955</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6183,13 +6222,13 @@
         <v>12680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>459</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6249,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6219,13 +6258,13 @@
         <v>2067</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6234,13 +6273,13 @@
         <v>2067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>242</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,7 +6335,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6315,7 +6354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE38D302-E009-4B1C-A420-3BF83F151CBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF8F0C1-CA48-42FE-BC1C-A809FABBA2EE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6332,7 +6371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6439,13 +6478,13 @@
         <v>5101</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -6454,13 +6493,13 @@
         <v>6146</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -6469,13 +6508,13 @@
         <v>11246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +6529,13 @@
         <v>8438</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6505,13 +6544,13 @@
         <v>3932</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>56</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -6520,13 +6559,13 @@
         <v>12369</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6580,13 @@
         <v>3380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6556,13 +6595,13 @@
         <v>3832</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -6571,13 +6610,13 @@
         <v>7212</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,7 +6637,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6613,7 +6652,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6628,7 +6667,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,7 +6688,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6664,7 +6703,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6679,7 +6718,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,13 +6786,13 @@
         <v>86819</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -6762,13 +6801,13 @@
         <v>50135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -6777,13 +6816,13 @@
         <v>136954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,13 +6837,13 @@
         <v>80121</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -6813,13 +6852,13 @@
         <v>77724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
@@ -6828,13 +6867,13 @@
         <v>157845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>515</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,13 +6888,13 @@
         <v>27033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -6864,13 +6903,13 @@
         <v>18329</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>277</v>
+        <v>521</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -6879,13 +6918,13 @@
         <v>45363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>349</v>
+        <v>525</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,13 +6939,13 @@
         <v>858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>520</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6915,13 +6954,13 @@
         <v>1900</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -6930,13 +6969,13 @@
         <v>2757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6990,13 @@
         <v>2272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6972,7 +7011,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>532</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -6981,13 +7020,13 @@
         <v>2272</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>533</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7094,13 @@
         <v>32361</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7070,13 +7109,13 @@
         <v>20413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -7085,13 +7124,13 @@
         <v>52775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7145,13 @@
         <v>15928</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>546</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7121,13 +7160,13 @@
         <v>17516</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -7136,13 +7175,13 @@
         <v>33444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7196,13 @@
         <v>2554</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7172,13 +7211,13 @@
         <v>2022</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>355</v>
+        <v>556</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -7187,13 +7226,13 @@
         <v>4576</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>559</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,13 +7247,13 @@
         <v>2317</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7223,13 +7262,13 @@
         <v>597</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -7238,13 +7277,13 @@
         <v>2913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>567</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,7 +7319,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7295,7 +7334,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,13 +7402,13 @@
         <v>124281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>336</v>
+        <v>572</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -7378,13 +7417,13 @@
         <v>76694</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
         <v>253</v>
@@ -7393,13 +7432,13 @@
         <v>200975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,10 +7456,10 @@
         <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>123</v>
@@ -7429,13 +7468,13 @@
         <v>99172</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>244</v>
@@ -7444,13 +7483,13 @@
         <v>203658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>572</v>
+        <v>437</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7504,13 @@
         <v>32967</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -7480,13 +7519,13 @@
         <v>24183</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="M24" s="7">
         <v>70</v>
@@ -7495,13 +7534,13 @@
         <v>57150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7555,13 @@
         <v>3174</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>250</v>
+        <v>595</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7531,13 +7570,13 @@
         <v>2496</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>455</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7546,13 +7585,13 @@
         <v>5671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7606,13 @@
         <v>2272</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7597,13 +7636,13 @@
         <v>2272</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,7 +7698,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{400E91AA-87AF-4DBB-AF9E-08BF7C94F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8F868A-6B8F-4326-A928-AD3038A47CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38DF3159-FBDA-42A7-8869-06DC2651968B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2C5B8CFA-1C09-48E5-977D-0FAECCA3F3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="594">
   <si>
     <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,130 +74,130 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
     <t>36,39%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
     <t>51,27%</t>
   </si>
   <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>Casi nunca</t>
   </si>
   <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>7,03%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>3,75%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -206,1654 +206,1621 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
     <t>33,14%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
   </si>
   <si>
     <t>40,94%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>46,06%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,67%</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9CCD97-3EE9-4D35-AEED-A765028B5672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E986DED1-BA86-40E5-8B06-1FB62EA37717}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2383,10 +2350,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>15730</v>
+        <v>16637</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2398,10 +2365,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>16637</v>
+        <v>15730</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2434,10 +2401,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>22160</v>
+        <v>22708</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2449,10 +2416,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>22708</v>
+        <v>22160</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2485,10 +2452,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>4685</v>
+        <v>6015</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2500,10 +2467,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>6015</v>
+        <v>4685</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2536,10 +2503,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2551,16 +2518,16 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -2575,7 +2542,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>47</v>
@@ -2587,28 +2554,28 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>649</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
@@ -2626,7 +2593,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>52</v>
@@ -2638,25 +2605,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -2694,7 +2661,7 @@
         <v>109</v>
       </c>
       <c r="D10" s="7">
-        <v>72017</v>
+        <v>72823</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
@@ -2709,7 +2676,7 @@
         <v>109</v>
       </c>
       <c r="I10" s="7">
-        <v>72823</v>
+        <v>72017</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>58</v>
@@ -2724,7 +2691,7 @@
         <v>218</v>
       </c>
       <c r="N10" s="7">
-        <v>144840</v>
+        <v>144839</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>61</v>
@@ -2742,10 +2709,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D11" s="7">
-        <v>92458</v>
+        <v>74460</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>64</v>
@@ -2757,10 +2724,10 @@
         <v>66</v>
       </c>
       <c r="H11" s="7">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="I11" s="7">
-        <v>74460</v>
+        <v>92458</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>67</v>
@@ -2793,10 +2760,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>48199</v>
+        <v>39151</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -2808,10 +2775,10 @@
         <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I12" s="7">
-        <v>39151</v>
+        <v>48199</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>76</v>
@@ -2844,10 +2811,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>4640</v>
+        <v>2594</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>82</v>
@@ -2859,10 +2826,10 @@
         <v>84</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>2594</v>
+        <v>4640</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
@@ -2895,31 +2862,31 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1357</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>93</v>
@@ -2934,7 +2901,7 @@
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>95</v>
@@ -2946,25 +2913,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>217314</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -2979,7 +2946,7 @@
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407700</v>
+        <v>407699</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -2999,10 +2966,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>17033</v>
+        <v>18687</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -3014,10 +2981,10 @@
         <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>18687</v>
+        <v>17033</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -3053,7 +3020,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>20791</v>
+        <v>22436</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>106</v>
@@ -3068,7 +3035,7 @@
         <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>22436</v>
+        <v>20791</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>109</v>
@@ -3101,10 +3068,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>10521</v>
+        <v>8799</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>115</v>
@@ -3116,10 +3083,10 @@
         <v>117</v>
       </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>8799</v>
+        <v>10521</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>118</v>
@@ -3152,31 +3119,31 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3590</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>695</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3590</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>127</v>
@@ -3203,31 +3170,31 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>133</v>
@@ -3239,10 +3206,10 @@
         <v>733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>134</v>
@@ -3254,25 +3221,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -3307,10 +3274,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D22" s="7">
-        <v>104779</v>
+        <v>108148</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>135</v>
@@ -3322,10 +3289,10 @@
         <v>137</v>
       </c>
       <c r="H22" s="7">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I22" s="7">
-        <v>108148</v>
+        <v>104779</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>138</v>
@@ -3358,10 +3325,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D23" s="7">
-        <v>135409</v>
+        <v>119604</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>144</v>
@@ -3373,10 +3340,10 @@
         <v>146</v>
       </c>
       <c r="H23" s="7">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="I23" s="7">
-        <v>119604</v>
+        <v>135409</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>147</v>
@@ -3409,10 +3376,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D24" s="7">
-        <v>63405</v>
+        <v>53965</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>153</v>
@@ -3424,10 +3391,10 @@
         <v>155</v>
       </c>
       <c r="H24" s="7">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="I24" s="7">
-        <v>53965</v>
+        <v>63405</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>156</v>
@@ -3460,10 +3427,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>5335</v>
+        <v>6838</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>162</v>
@@ -3475,10 +3442,10 @@
         <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>6838</v>
+        <v>5335</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>165</v>
@@ -3511,34 +3478,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>649</v>
+        <v>2091</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>2091</v>
+        <v>649</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3547,13 +3514,13 @@
         <v>2740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,25 +3529,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>309578</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>53</v>
@@ -3628,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390BE762-9B1E-481D-8D5A-F32DF7FFFF7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8F11CB-0CB0-4FF9-8032-6442E62F0DCA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3746,10 +3713,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>20637</v>
+        <v>22840</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
@@ -3761,10 +3728,10 @@
         <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>22840</v>
+        <v>20637</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>183</v>
@@ -3797,10 +3764,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>18238</v>
+        <v>18306</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>189</v>
@@ -3812,10 +3779,10 @@
         <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>18306</v>
+        <v>18238</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>192</v>
@@ -3848,10 +3815,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>5662</v>
+        <v>8827</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>198</v>
@@ -3863,10 +3830,10 @@
         <v>200</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>8827</v>
+        <v>5662</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>201</v>
@@ -3899,34 +3866,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>625</v>
+        <v>1653</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>208</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1653</v>
+        <v>625</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3935,13 +3902,13 @@
         <v>2278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3971,13 +3938,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3986,13 +3953,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,25 +3968,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -4054,10 +4021,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D10" s="7">
-        <v>98808</v>
+        <v>78094</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>214</v>
@@ -4069,10 +4036,10 @@
         <v>216</v>
       </c>
       <c r="H10" s="7">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I10" s="7">
-        <v>78094</v>
+        <v>98808</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>217</v>
@@ -4081,7 +4048,7 @@
         <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -4090,13 +4057,13 @@
         <v>176902</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,34 +4072,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>115</v>
+      </c>
+      <c r="D11" s="7">
+        <v>80331</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="7">
         <v>123</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>85230</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H11" s="7">
-        <v>115</v>
-      </c>
-      <c r="I11" s="7">
-        <v>80331</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>238</v>
@@ -4141,13 +4108,13 @@
         <v>165561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,34 +4123,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7">
+        <v>38761</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H12" s="7">
         <v>54</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>35153</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="7">
-        <v>56</v>
-      </c>
-      <c r="I12" s="7">
-        <v>38761</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
@@ -4192,13 +4159,13 @@
         <v>73914</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,34 +4174,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1883</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3998</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1883</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4243,13 +4210,13 @@
         <v>5881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,31 +4228,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>652</v>
+        <v>678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4294,13 +4261,13 @@
         <v>1331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,25 +4276,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199748</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7">
         <v>327</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>223842</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -4362,34 +4329,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30536</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="7">
         <v>30</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20184</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="7">
-        <v>43</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30536</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -4398,13 +4365,13 @@
         <v>50720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,34 +4380,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7">
+        <v>18716</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="7">
         <v>36</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>24535</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="7">
-        <v>26</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18716</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -4449,13 +4416,13 @@
         <v>43251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,34 +4431,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10871</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="7">
         <v>13</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>9371</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10871</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -4500,13 +4467,13 @@
         <v>20242</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,34 +4482,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>678</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1393</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>678</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4554,10 +4521,10 @@
         <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,34 +4533,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>668</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4602,13 +4569,13 @@
         <v>668</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,25 +4584,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>85</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -4670,34 +4637,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>187</v>
+      </c>
+      <c r="D22" s="7">
+        <v>131470</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="7">
         <v>203</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>139629</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" s="7">
-        <v>187</v>
-      </c>
-      <c r="I22" s="7">
-        <v>131470</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>390</v>
@@ -4706,13 +4673,13 @@
         <v>271098</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,34 +4688,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>167</v>
+      </c>
+      <c r="D23" s="7">
+        <v>117353</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" s="7">
         <v>184</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>128004</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H23" s="7">
-        <v>167</v>
-      </c>
-      <c r="I23" s="7">
-        <v>117353</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>351</v>
@@ -4757,13 +4724,13 @@
         <v>245356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,34 +4739,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>83</v>
+      </c>
+      <c r="D24" s="7">
+        <v>58459</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H24" s="7">
         <v>75</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>50186</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H24" s="7">
-        <v>83</v>
-      </c>
-      <c r="I24" s="7">
-        <v>58459</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>158</v>
@@ -4808,13 +4775,13 @@
         <v>108645</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,34 +4790,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4214</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" s="7">
         <v>9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>6016</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4214</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4859,13 +4826,13 @@
         <v>10231</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,34 +4841,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>678</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1321</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>678</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4910,13 +4877,13 @@
         <v>1999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,25 +4892,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>444</v>
+      </c>
+      <c r="D27" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="7">
         <v>473</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>325155</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
-        <v>444</v>
-      </c>
-      <c r="I27" s="7">
-        <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>53</v>
@@ -4991,7 +4958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE65110-03CF-4132-A5F7-8AE26308A78C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC0A510-A8AD-48EC-9B23-F22303E16AC7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5008,7 +4975,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5109,34 +5076,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11047</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>7843</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11047</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5145,13 +5112,13 @@
         <v>18890</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,34 +5127,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12290</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" s="7">
         <v>34</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>24479</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>12290</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -5196,13 +5163,13 @@
         <v>36769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,34 +5178,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6651</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4316</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H6" s="7">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>6651</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -5247,13 +5214,13 @@
         <v>10967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,34 +5229,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5298,13 +5265,13 @@
         <v>617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5286,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5334,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5349,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,25 +5331,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -5420,31 +5387,31 @@
         <v>118</v>
       </c>
       <c r="D10" s="7">
-        <v>86234</v>
+        <v>81867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
       </c>
       <c r="I10" s="7">
-        <v>81867</v>
+        <v>86234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -5453,13 +5420,13 @@
         <v>168102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,34 +5435,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>165</v>
+      </c>
+      <c r="D11" s="7">
+        <v>115320</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H11" s="7">
         <v>149</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>108551</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H11" s="7">
-        <v>165</v>
-      </c>
-      <c r="I11" s="7">
-        <v>115320</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>314</v>
@@ -5504,13 +5471,13 @@
         <v>223871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,34 +5486,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>61</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43606</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H12" s="7">
         <v>44</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>32229</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H12" s="7">
-        <v>61</v>
-      </c>
-      <c r="I12" s="7">
-        <v>43606</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -5555,13 +5522,13 @@
         <v>75835</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,34 +5537,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1962</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>8725</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1962</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5606,13 +5573,13 @@
         <v>10686</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,34 +5588,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1244</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5657,13 +5624,13 @@
         <v>1244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,25 +5639,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>349</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7">
         <v>322</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>235739</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7">
-        <v>349</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -5725,34 +5692,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25384</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="7">
         <v>43</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>31123</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25384</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -5761,13 +5728,13 @@
         <v>56506</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,31 +5746,31 @@
         <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>32460</v>
+        <v>32915</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
       </c>
       <c r="I17" s="7">
-        <v>32915</v>
+        <v>32460</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -5812,13 +5779,13 @@
         <v>65374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,34 +5794,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10592</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11303</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10592</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5863,13 +5830,13 @@
         <v>21895</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,34 +5845,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1376</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5914,13 +5881,13 @@
         <v>1376</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,34 +5896,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5965,13 +5932,13 @@
         <v>824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,25 +5947,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
         <v>104</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>74885</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -6033,34 +6000,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>171</v>
+      </c>
+      <c r="D22" s="7">
+        <v>118298</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H22" s="7">
         <v>172</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>125200</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H22" s="7">
-        <v>171</v>
-      </c>
-      <c r="I22" s="7">
-        <v>118298</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>436</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -6069,13 +6036,13 @@
         <v>243498</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,31 +6054,31 @@
         <v>228</v>
       </c>
       <c r="D23" s="7">
-        <v>165490</v>
+        <v>160524</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
       </c>
       <c r="I23" s="7">
-        <v>160524</v>
+        <v>165490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>456</v>
@@ -6120,13 +6087,13 @@
         <v>326015</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,34 +6102,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D24" s="7">
-        <v>47848</v>
+        <v>60849</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>452</v>
       </c>
       <c r="H24" s="7">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I24" s="7">
-        <v>60849</v>
+        <v>47848</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>453</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M24" s="7">
         <v>151</v>
@@ -6171,13 +6138,13 @@
         <v>108697</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>457</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,34 +6153,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3955</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H25" s="7">
         <v>11</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>8725</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3955</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6222,13 +6189,13 @@
         <v>12680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,34 +6204,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2067</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2067</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="K26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6273,13 +6240,13 @@
         <v>2067</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,25 +6255,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>493</v>
+      </c>
+      <c r="D27" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="7">
         <v>477</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>347262</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
-        <v>493</v>
-      </c>
-      <c r="I27" s="7">
-        <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>53</v>
@@ -6354,7 +6321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF8F0C1-CA48-42FE-BC1C-A809FABBA2EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4600889-7243-4C97-80ED-B7CDCD15CFD8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6371,7 +6338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6472,49 +6439,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5735</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
-        <v>5101</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>5165</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6146</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>11246</v>
+        <v>10901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,49 +6490,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3751</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
-        <v>8438</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>8253</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3932</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>12369</v>
+        <v>12005</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,49 +6541,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2920</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
-        <v>3380</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>3336</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3832</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>7212</v>
+        <v>6256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>495</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6598,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6646,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6661,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6649,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6697,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6712,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,25 +6694,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -6760,7 +6727,7 @@
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>53</v>
@@ -6780,49 +6747,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>72</v>
+      </c>
+      <c r="D10" s="7">
+        <v>48171</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" s="7">
         <v>93</v>
       </c>
-      <c r="D10" s="7">
-        <v>86819</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>93431</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="H10" s="7">
-        <v>72</v>
-      </c>
-      <c r="I10" s="7">
-        <v>50135</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
       </c>
       <c r="N10" s="7">
-        <v>136954</v>
+        <v>141602</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,49 +6798,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>95</v>
+      </c>
+      <c r="D11" s="7">
+        <v>92039</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H11" s="7">
         <v>91</v>
       </c>
-      <c r="D11" s="7">
-        <v>80121</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>78467</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="H11" s="7">
-        <v>95</v>
-      </c>
-      <c r="I11" s="7">
-        <v>77724</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
       </c>
       <c r="N11" s="7">
-        <v>157845</v>
+        <v>170506</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,49 +6849,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17239</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H12" s="7">
         <v>30</v>
       </c>
-      <c r="D12" s="7">
-        <v>27033</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>27638</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18329</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
       </c>
       <c r="N12" s="7">
-        <v>45363</v>
+        <v>44877</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,49 +6900,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1864</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>858</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
       <c r="I13" s="7">
-        <v>1900</v>
+        <v>868</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2757</v>
+        <v>2732</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>525</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>530</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,49 +6951,49 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>2272</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>526</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>532</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>2272</v>
+        <v>2295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,25 +7002,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -7068,7 +7035,7 @@
         <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -7088,49 +7055,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19646</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H16" s="7">
         <v>42</v>
       </c>
-      <c r="D16" s="7">
-        <v>32361</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="H16" s="7">
-        <v>31</v>
-      </c>
       <c r="I16" s="7">
-        <v>20413</v>
+        <v>32352</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
       </c>
       <c r="N16" s="7">
-        <v>52775</v>
+        <v>51997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,49 +7106,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16543</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H17" s="7">
         <v>21</v>
       </c>
-      <c r="D17" s="7">
-        <v>15928</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="H17" s="7">
-        <v>22</v>
-      </c>
       <c r="I17" s="7">
-        <v>17516</v>
+        <v>15369</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>33444</v>
+        <v>31912</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,46 +7160,46 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>2554</v>
+        <v>1974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>554</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2022</v>
+        <v>2620</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>207</v>
+        <v>549</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>4576</v>
+        <v>4593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>559</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>560</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,49 +7208,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>590</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
-        <v>2317</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
       <c r="I19" s="7">
-        <v>597</v>
+        <v>2353</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>2913</v>
+        <v>2942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>559</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7313,13 +7280,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7328,13 +7295,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,25 +7310,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -7376,7 +7343,7 @@
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>53</v>
@@ -7396,49 +7363,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>111</v>
+      </c>
+      <c r="D22" s="7">
+        <v>73552</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="7">
         <v>142</v>
       </c>
-      <c r="D22" s="7">
-        <v>124281</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H22" s="7">
-        <v>111</v>
-      </c>
       <c r="I22" s="7">
-        <v>76694</v>
+        <v>130948</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>253</v>
       </c>
       <c r="N22" s="7">
-        <v>200975</v>
+        <v>204500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,49 +7414,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>123</v>
+      </c>
+      <c r="D23" s="7">
+        <v>112333</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="H23" s="7">
         <v>121</v>
       </c>
-      <c r="D23" s="7">
-        <v>104486</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="H23" s="7">
-        <v>123</v>
-      </c>
       <c r="I23" s="7">
-        <v>99172</v>
+        <v>102090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="M23" s="7">
         <v>244</v>
       </c>
       <c r="N23" s="7">
-        <v>203658</v>
+        <v>214422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>437</v>
+        <v>576</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,49 +7465,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22133</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="H24" s="7">
         <v>38</v>
       </c>
-      <c r="D24" s="7">
-        <v>32967</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="H24" s="7">
-        <v>32</v>
-      </c>
       <c r="I24" s="7">
-        <v>24183</v>
+        <v>33594</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="M24" s="7">
         <v>70</v>
       </c>
       <c r="N24" s="7">
-        <v>57150</v>
+        <v>55727</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>593</v>
+        <v>289</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,46 +7519,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3174</v>
+        <v>2454</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>595</v>
+        <v>242</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>2496</v>
+        <v>3221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>587</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>245</v>
+        <v>588</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>597</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>5671</v>
+        <v>5675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,49 +7567,49 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
-        <v>2272</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>92</v>
+        <v>591</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>2272</v>
+        <v>2295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,25 +7618,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>270</v>
+      </c>
+      <c r="D27" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
-        <v>270</v>
-      </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>53</v>
@@ -7684,7 +7651,7 @@
         <v>577</v>
       </c>
       <c r="N27" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>53</v>
